--- a/historial_calificaciones.xlsx
+++ b/historial_calificaciones.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,27 +422,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Periodo</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Profesor</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Materia</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Unidades</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Final</t>
         </is>

--- a/historial_calificaciones.xlsx
+++ b/historial_calificaciones.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,6 +718,276 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sep-Dic 2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GOMEZ RUIZ CARLOS DANIEL</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Matemáticas para Ingeniería I</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sep-Dic 2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SOSA ESCOBEDO ABEL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Metodologías para el Desarrollo de Proyectos</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sep-Dic 2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ROSALES DIAZ MIRON DANIEL</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Seguridad Informática</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>May-Ago 2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ESQUIVEL DURAN RAMIRO</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Estadía</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ene-Abr 2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>OCHOA DEL TORO DAVID</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Aplicaciones de loT</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ene-Abr 2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SALAZAR RODRIGUEZ IGMAR</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Aplicaciones Web para I4.0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ene-Abr 2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ESQUIVEL DURAN RAMIRO</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Bases de Datos para Cómputo en la Nube</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ene-Abr 2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BURCIAGA PEREZ JESUS ADRIAN</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Desarrollo Móvil Multiplataforma</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ene-Abr 2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CASTAÑEDA DAVILA LAURA ELENA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Expresión Oral y Escrita II</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ene-Abr 2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ESCOBEDO MARTINEZ YOBARDO GERARDO</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Inglés V</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
